--- a/com.supermarket/src/main/resources/ExcelFiles/AdminUsersData.xlsx
+++ b/com.supermarket/src/main/resources/ExcelFiles/AdminUsersData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashoy/Desktop/project1/src/main/resources/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashoy/git/com.supermarket/com.supermarket/src/main/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewUserCreation" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>password</t>
   </si>
@@ -68,12 +68,6 @@
     <t>searchAnisa</t>
   </si>
   <si>
-    <t>editAnisa</t>
-  </si>
-  <si>
-    <t>editAnisa123</t>
-  </si>
-  <si>
     <t>searchAnisa123</t>
   </si>
   <si>
@@ -81,6 +75,9 @@
   </si>
   <si>
     <t>newAnisa123</t>
+  </si>
+  <si>
+    <t>nisa</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -419,7 +416,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -448,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,15 +459,12 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -512,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -532,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
